--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00874379157265</v>
+        <v>4.216178999999999</v>
       </c>
       <c r="H2">
-        <v>3.00874379157265</v>
+        <v>12.648537</v>
       </c>
       <c r="I2">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="J2">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>32.40919090012408</v>
+        <v>88.88470006331298</v>
       </c>
       <c r="R2">
-        <v>32.40919090012408</v>
+        <v>799.962300569817</v>
       </c>
       <c r="S2">
-        <v>0.0003692057966782793</v>
+        <v>0.0009621228125480959</v>
       </c>
       <c r="T2">
-        <v>0.0003692057966782793</v>
+        <v>0.0009621228125480961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00874379157265</v>
+        <v>4.216178999999999</v>
       </c>
       <c r="H3">
-        <v>3.00874379157265</v>
+        <v>12.648537</v>
       </c>
       <c r="I3">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="J3">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>896.1260460754131</v>
+        <v>1271.600213205278</v>
       </c>
       <c r="R3">
-        <v>896.1260460754131</v>
+        <v>11444.4019188475</v>
       </c>
       <c r="S3">
-        <v>0.01020867604455261</v>
+        <v>0.01376429883539418</v>
       </c>
       <c r="T3">
-        <v>0.01020867604455261</v>
+        <v>0.01376429883539419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00874379157265</v>
+        <v>4.216178999999999</v>
       </c>
       <c r="H4">
-        <v>3.00874379157265</v>
+        <v>12.648537</v>
       </c>
       <c r="I4">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="J4">
-        <v>0.01213130994117723</v>
+        <v>0.01683192247764961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>136.3612063887725</v>
+        <v>194.514470804357</v>
       </c>
       <c r="R4">
-        <v>136.3612063887725</v>
+        <v>1750.630237239213</v>
       </c>
       <c r="S4">
-        <v>0.001553428099946341</v>
+        <v>0.002105500829707328</v>
       </c>
       <c r="T4">
-        <v>0.001553428099946341</v>
+        <v>0.002105500829707328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.314336077172</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H5">
-        <v>212.314336077172</v>
+        <v>638.30803</v>
       </c>
       <c r="I5">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="J5">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>2286.979658431319</v>
+        <v>4485.563650132359</v>
       </c>
       <c r="R5">
-        <v>2286.979658431319</v>
+        <v>40370.07285119123</v>
       </c>
       <c r="S5">
-        <v>0.02605329301124025</v>
+        <v>0.04855349809196388</v>
       </c>
       <c r="T5">
-        <v>0.02605329301124025</v>
+        <v>0.04855349809196388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>212.314336077172</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H6">
-        <v>212.314336077172</v>
+        <v>638.30803</v>
       </c>
       <c r="I6">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="J6">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>63235.8285364387</v>
+        <v>64171.26558104238</v>
       </c>
       <c r="R6">
-        <v>63235.8285364387</v>
+        <v>577541.3902293814</v>
       </c>
       <c r="S6">
-        <v>0.7203831322218394</v>
+        <v>0.6946149166462302</v>
       </c>
       <c r="T6">
-        <v>0.7203831322218394</v>
+        <v>0.6946149166462302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>212.314336077172</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H7">
-        <v>212.314336077172</v>
+        <v>638.30803</v>
       </c>
       <c r="I7">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="J7">
-        <v>0.8560552823147383</v>
+        <v>0.8494224492382987</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>9622.434147502379</v>
+        <v>9816.166776096055</v>
       </c>
       <c r="R7">
-        <v>9622.434147502379</v>
+        <v>88345.50098486448</v>
       </c>
       <c r="S7">
-        <v>0.1096188570816587</v>
+        <v>0.1062540345001046</v>
       </c>
       <c r="T7">
-        <v>0.1096188570816587</v>
+        <v>0.1062540345001046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.6916692524602</v>
+        <v>33.501551</v>
       </c>
       <c r="H8">
-        <v>32.6916692524602</v>
+        <v>100.504653</v>
       </c>
       <c r="I8">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="J8">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>352.1438258100735</v>
+        <v>706.2734557263303</v>
       </c>
       <c r="R8">
-        <v>352.1438258100735</v>
+        <v>6356.461101536972</v>
       </c>
       <c r="S8">
-        <v>0.004011625657493586</v>
+        <v>0.007644980555342522</v>
       </c>
       <c r="T8">
-        <v>0.004011625657493586</v>
+        <v>0.007644980555342522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.6916692524602</v>
+        <v>33.501551</v>
       </c>
       <c r="H9">
-        <v>32.6916692524602</v>
+        <v>100.504653</v>
       </c>
       <c r="I9">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="J9">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>9736.906275924403</v>
+        <v>10104.07276216391</v>
       </c>
       <c r="R9">
-        <v>9736.906275924403</v>
+        <v>90936.65485947522</v>
       </c>
       <c r="S9">
-        <v>0.1109229246068788</v>
+        <v>0.1093704416755548</v>
       </c>
       <c r="T9">
-        <v>0.1109229246068788</v>
+        <v>0.1093704416755548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.6916692524602</v>
+        <v>33.501551</v>
       </c>
       <c r="H10">
-        <v>32.6916692524602</v>
+        <v>100.504653</v>
       </c>
       <c r="I10">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="J10">
-        <v>0.1318134077440845</v>
+        <v>0.1337456282840517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>1481.640101963654</v>
+        <v>1545.602419605567</v>
       </c>
       <c r="R10">
-        <v>1481.640101963654</v>
+        <v>13910.4217764501</v>
       </c>
       <c r="S10">
-        <v>0.01687885747971214</v>
+        <v>0.01673020605315437</v>
       </c>
       <c r="T10">
-        <v>0.01687885747971214</v>
+        <v>0.01673020605315437</v>
       </c>
     </row>
   </sheetData>
